--- a/manual/nicad_default_combined.xlsx
+++ b/manual/nicad_default_combined.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27224"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="6380" windowWidth="38400" windowHeight="21600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -1644,8 +1644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="K104" sqref="K104"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1695,45 +1695,45 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="G2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="H2">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I2">
-        <v>27</v>
+        <v>31.5</v>
       </c>
       <c r="J2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C3">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D3">
         <v>27</v>
@@ -1759,13 +1759,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4">
         <v>27</v>
@@ -1791,13 +1791,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D5">
         <v>27</v>
@@ -1823,13 +1823,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="D6">
         <v>27</v>
@@ -1855,13 +1855,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="C7">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="D7">
         <v>27</v>
@@ -1887,13 +1887,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C8">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="D8">
         <v>27</v>
@@ -1919,31 +1919,31 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="D9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F9">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="G9">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="H9">
         <v>27</v>
       </c>
       <c r="I9">
-        <v>25.5</v>
+        <v>27</v>
       </c>
       <c r="J9" t="s">
         <v>413</v>
@@ -1951,48 +1951,48 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C10">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="G10">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="H10">
         <v>27</v>
       </c>
       <c r="I10">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J10" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="C11">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -2007,24 +2007,24 @@
         <v>27</v>
       </c>
       <c r="I11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J11" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C12">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="D12">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -2039,7 +2039,7 @@
         <v>27</v>
       </c>
       <c r="I12">
-        <v>24</v>
+        <v>25.5</v>
       </c>
       <c r="J12" t="s">
         <v>413</v>
@@ -2047,16 +2047,16 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B13">
+        <v>46</v>
+      </c>
+      <c r="C13">
+        <v>68</v>
+      </c>
+      <c r="D13">
         <v>23</v>
-      </c>
-      <c r="C13">
-        <v>41</v>
-      </c>
-      <c r="D13">
-        <v>19</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -2071,7 +2071,7 @@
         <v>27</v>
       </c>
       <c r="I13">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J13" t="s">
         <v>413</v>
@@ -2079,16 +2079,16 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="C14">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="D14">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -2103,7 +2103,7 @@
         <v>27</v>
       </c>
       <c r="I14">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J14" t="s">
         <v>413</v>
@@ -2111,48 +2111,48 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15">
         <v>14</v>
       </c>
-      <c r="F15">
-        <v>82</v>
-      </c>
       <c r="G15">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="H15">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I15">
-        <v>23</v>
+        <v>24.5</v>
       </c>
       <c r="J15" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C16">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D16">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -2167,7 +2167,7 @@
         <v>27</v>
       </c>
       <c r="I16">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J16" t="s">
         <v>413</v>
@@ -2175,13 +2175,13 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B17">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C17">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="D17">
         <v>19</v>
@@ -2207,16 +2207,16 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="B18">
-        <v>125</v>
+        <v>24</v>
       </c>
       <c r="C18">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="D18">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -2231,7 +2231,7 @@
         <v>27</v>
       </c>
       <c r="I18">
-        <v>21.5</v>
+        <v>23</v>
       </c>
       <c r="J18" t="s">
         <v>413</v>
@@ -2239,16 +2239,16 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="B19">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C19">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D19">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -2263,7 +2263,7 @@
         <v>27</v>
       </c>
       <c r="I19">
-        <v>21.5</v>
+        <v>23</v>
       </c>
       <c r="J19" t="s">
         <v>413</v>
@@ -2271,16 +2271,16 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="B20">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C20">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D20">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -2295,7 +2295,7 @@
         <v>27</v>
       </c>
       <c r="I20">
-        <v>21.5</v>
+        <v>23</v>
       </c>
       <c r="J20" t="s">
         <v>413</v>
@@ -2303,16 +2303,16 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B21">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C21">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D21">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -2327,7 +2327,7 @@
         <v>27</v>
       </c>
       <c r="I21">
-        <v>21.5</v>
+        <v>23</v>
       </c>
       <c r="J21" t="s">
         <v>413</v>
@@ -2335,13 +2335,13 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="C22">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="D22">
         <v>16</v>
@@ -2367,141 +2367,141 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23">
+        <v>14</v>
+      </c>
+      <c r="C23">
         <v>29</v>
       </c>
-      <c r="B23">
-        <v>95</v>
-      </c>
-      <c r="C23">
-        <v>114</v>
-      </c>
       <c r="D23">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F23">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="G23">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="H23">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I23">
-        <v>20</v>
-      </c>
-      <c r="J23" s="1" t="s">
+        <v>21.5</v>
+      </c>
+      <c r="J23" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="B24">
         <v>21</v>
       </c>
       <c r="C24">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D24">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F24">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="G24">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="H24">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I24">
-        <v>20</v>
-      </c>
-      <c r="J24" s="1" t="s">
+        <v>21.5</v>
+      </c>
+      <c r="J24" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>38</v>
+      </c>
+      <c r="D25">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
         <v>14</v>
       </c>
-      <c r="C25">
-        <v>33</v>
-      </c>
-      <c r="D25">
-        <v>20</v>
-      </c>
-      <c r="E25" t="s">
-        <v>28</v>
-      </c>
       <c r="F25">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="G25">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="H25">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I25">
-        <v>20</v>
-      </c>
-      <c r="J25" s="1" t="s">
+        <v>21.5</v>
+      </c>
+      <c r="J25" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="B26">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C26">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D26">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E26" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F26">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="G26">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="H26">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I26">
-        <v>20</v>
-      </c>
-      <c r="J26" s="1" t="s">
+        <v>21.5</v>
+      </c>
+      <c r="J26" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B27">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="C27">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="D27">
         <v>20</v>
@@ -2527,13 +2527,13 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B28">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C28">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D28">
         <v>20</v>
@@ -2559,13 +2559,13 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B29">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C29">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D29">
         <v>20</v>
@@ -2591,31 +2591,31 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B30">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C30">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="D30">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E30" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F30">
-        <v>226</v>
+        <v>40</v>
       </c>
       <c r="G30">
-        <v>245</v>
+        <v>59</v>
       </c>
       <c r="H30">
         <v>20</v>
       </c>
       <c r="I30">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>413</v>
@@ -2623,31 +2623,31 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="B31">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c r="C31">
+        <v>159</v>
+      </c>
+      <c r="D31">
+        <v>20</v>
+      </c>
+      <c r="E31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31">
+        <v>40</v>
+      </c>
+      <c r="G31">
         <v>59</v>
       </c>
-      <c r="D31">
-        <v>14</v>
-      </c>
-      <c r="E31" t="s">
-        <v>109</v>
-      </c>
-      <c r="F31">
-        <v>60</v>
-      </c>
-      <c r="G31">
-        <v>80</v>
-      </c>
       <c r="H31">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I31">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>413</v>
@@ -2655,2012 +2655,2047 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="B32">
+        <v>23</v>
+      </c>
+      <c r="C32">
         <v>42</v>
       </c>
-      <c r="C32">
-        <v>55</v>
-      </c>
       <c r="D32">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E32" t="s">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="F32">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G32">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="H32">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I32">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B33">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C33">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D33">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E33" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="F33">
-        <v>764</v>
+        <v>40</v>
       </c>
       <c r="G33">
-        <v>780</v>
+        <v>59</v>
       </c>
       <c r="H33">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I33">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="B34">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C34">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D34">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E34" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="F34">
-        <v>1846</v>
+        <v>40</v>
       </c>
       <c r="G34">
-        <v>1863</v>
+        <v>59</v>
       </c>
       <c r="H34">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I34">
-        <v>17</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="J34" t="s">
+        <v>415</v>
+      </c>
+      <c r="K34" t="s">
+        <v>416</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C35">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D35">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E35" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="F35">
-        <v>1846</v>
+        <v>226</v>
       </c>
       <c r="G35">
-        <v>1863</v>
+        <v>245</v>
       </c>
       <c r="H35">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I35">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="B36">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C36">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D36">
+        <v>20</v>
+      </c>
+      <c r="E36" t="s">
+        <v>185</v>
+      </c>
+      <c r="F36">
+        <v>591</v>
+      </c>
+      <c r="G36">
+        <v>609</v>
+      </c>
+      <c r="H36">
+        <v>19</v>
+      </c>
+      <c r="I36">
+        <v>19.5</v>
+      </c>
+      <c r="J36" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>28</v>
+      </c>
+      <c r="C37">
+        <v>46</v>
+      </c>
+      <c r="D37">
+        <v>19</v>
+      </c>
+      <c r="E37" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37">
+        <v>226</v>
+      </c>
+      <c r="G37">
+        <v>245</v>
+      </c>
+      <c r="H37">
+        <v>20</v>
+      </c>
+      <c r="I37">
+        <v>19.5</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="K37" t="s">
+        <v>416</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38">
+        <v>47</v>
+      </c>
+      <c r="C38">
+        <v>62</v>
+      </c>
+      <c r="D38">
         <v>16</v>
       </c>
-      <c r="E36" t="s">
-        <v>76</v>
-      </c>
-      <c r="F36">
-        <v>1846</v>
-      </c>
-      <c r="G36">
-        <v>1863</v>
-      </c>
-      <c r="H36">
-        <v>18</v>
-      </c>
-      <c r="I36">
-        <v>17</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>401</v>
-      </c>
-      <c r="B37">
-        <v>4</v>
-      </c>
-      <c r="C37">
-        <v>11</v>
-      </c>
-      <c r="D37">
-        <v>8</v>
-      </c>
-      <c r="E37" t="s">
-        <v>25</v>
-      </c>
-      <c r="F37">
-        <v>89</v>
-      </c>
-      <c r="G37">
-        <v>113</v>
-      </c>
-      <c r="H37">
-        <v>25</v>
-      </c>
-      <c r="I37">
-        <v>16.5</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>402</v>
-      </c>
-      <c r="B38">
-        <v>3</v>
-      </c>
-      <c r="C38">
-        <v>10</v>
-      </c>
-      <c r="D38">
-        <v>8</v>
-      </c>
       <c r="E38" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="F38">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G38">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="H38">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I38">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+      <c r="K38" t="s">
+        <v>418</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>403</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="C39">
+        <v>91</v>
+      </c>
+      <c r="D39">
         <v>19</v>
       </c>
-      <c r="D39">
-        <v>8</v>
-      </c>
       <c r="E39" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="F39">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="G39">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="H39">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I39">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+      <c r="K39" t="s">
+        <v>418</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>404</v>
+        <v>114</v>
       </c>
       <c r="B40">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="C40">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="D40">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E40" t="s">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="F40">
-        <v>89</v>
+        <v>267</v>
       </c>
       <c r="G40">
-        <v>113</v>
+        <v>290</v>
       </c>
       <c r="H40">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I40">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+      <c r="K40" t="s">
+        <v>418</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>405</v>
+        <v>116</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C41">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D41">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E41" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="F41">
-        <v>89</v>
+        <v>249</v>
       </c>
       <c r="G41">
-        <v>113</v>
+        <v>273</v>
       </c>
       <c r="H41">
         <v>25</v>
       </c>
       <c r="I41">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+      <c r="K41" t="s">
+        <v>416</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>406</v>
+        <v>199</v>
       </c>
       <c r="B42">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C42">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D42">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="F42">
-        <v>89</v>
+        <v>249</v>
       </c>
       <c r="G42">
-        <v>113</v>
+        <v>273</v>
       </c>
       <c r="H42">
         <v>25</v>
       </c>
       <c r="I42">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>407</v>
+        <v>39</v>
       </c>
       <c r="B43">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C43">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D43">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E43" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F43">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="G43">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="H43">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I43">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>408</v>
+        <v>106</v>
       </c>
       <c r="B44">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="C44">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="D44">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E44" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="F44">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G44">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H44">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I44">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+      <c r="K44" t="s">
+        <v>416</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>409</v>
+        <v>110</v>
       </c>
       <c r="B45">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="C45">
+        <v>59</v>
+      </c>
+      <c r="D45">
         <v>14</v>
       </c>
-      <c r="D45">
-        <v>8</v>
-      </c>
       <c r="E45" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="F45">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="G45">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="H45">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I45">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>410</v>
+        <v>111</v>
       </c>
       <c r="B46">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="C46">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="D46">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E46" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="F46">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="G46">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="H46">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I46">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>199</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="C47">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="D47">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E47" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="F47">
-        <v>249</v>
+        <v>71</v>
       </c>
       <c r="G47">
-        <v>273</v>
+        <v>88</v>
       </c>
       <c r="H47">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I47">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="B48">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="C48">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="D48">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E48" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="F48">
-        <v>292</v>
+        <v>60</v>
       </c>
       <c r="G48">
-        <v>310</v>
+        <v>80</v>
       </c>
       <c r="H48">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I48">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="C49">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="D49">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E49" t="s">
-        <v>127</v>
+        <v>51</v>
       </c>
       <c r="F49">
-        <v>292</v>
+        <v>764</v>
       </c>
       <c r="G49">
-        <v>310</v>
+        <v>780</v>
       </c>
       <c r="H49">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I49">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>381</v>
+        <v>77</v>
       </c>
       <c r="B50">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C50">
+        <v>39</v>
+      </c>
+      <c r="D50">
+        <v>16</v>
+      </c>
+      <c r="E50" t="s">
+        <v>76</v>
+      </c>
+      <c r="F50">
+        <v>1846</v>
+      </c>
+      <c r="G50">
+        <v>1863</v>
+      </c>
+      <c r="H50">
+        <v>18</v>
+      </c>
+      <c r="I50">
         <v>17</v>
-      </c>
-      <c r="D50">
-        <v>11</v>
-      </c>
-      <c r="E50" t="s">
-        <v>24</v>
-      </c>
-      <c r="F50">
-        <v>338</v>
-      </c>
-      <c r="G50">
-        <v>358</v>
-      </c>
-      <c r="H50">
-        <v>21</v>
-      </c>
-      <c r="I50">
-        <v>16</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B51">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C51">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D51">
         <v>16</v>
       </c>
       <c r="E51" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F51">
-        <v>56</v>
+        <v>1846</v>
       </c>
       <c r="G51">
-        <v>71</v>
+        <v>1863</v>
       </c>
       <c r="H51">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I51">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B52">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C52">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D52">
         <v>16</v>
       </c>
       <c r="E52" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F52">
-        <v>56</v>
+        <v>1846</v>
       </c>
       <c r="G52">
-        <v>71</v>
+        <v>1863</v>
       </c>
       <c r="H52">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I52">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="B53">
+        <v>45</v>
+      </c>
+      <c r="C53">
+        <v>61</v>
+      </c>
+      <c r="D53">
+        <v>17</v>
+      </c>
+      <c r="E53" t="s">
+        <v>55</v>
+      </c>
+      <c r="F53">
+        <v>36</v>
+      </c>
+      <c r="G53">
+        <v>52</v>
+      </c>
+      <c r="H53">
+        <v>17</v>
+      </c>
+      <c r="I53">
+        <v>17</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>123</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>14</v>
+      </c>
+      <c r="D54">
+        <v>13</v>
+      </c>
+      <c r="E54" t="s">
+        <v>109</v>
+      </c>
+      <c r="F54">
+        <v>60</v>
+      </c>
+      <c r="G54">
+        <v>80</v>
+      </c>
+      <c r="H54">
+        <v>21</v>
+      </c>
+      <c r="I54">
+        <v>17</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55">
+        <v>17</v>
+      </c>
+      <c r="C55">
+        <v>33</v>
+      </c>
+      <c r="D55">
+        <v>17</v>
+      </c>
+      <c r="E55" t="s">
+        <v>55</v>
+      </c>
+      <c r="F55">
+        <v>36</v>
+      </c>
+      <c r="G55">
+        <v>52</v>
+      </c>
+      <c r="H55">
+        <v>17</v>
+      </c>
+      <c r="I55">
+        <v>17</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56">
+        <v>33</v>
+      </c>
+      <c r="C56">
+        <v>49</v>
+      </c>
+      <c r="D56">
+        <v>17</v>
+      </c>
+      <c r="E56" t="s">
+        <v>58</v>
+      </c>
+      <c r="F56">
+        <v>8</v>
+      </c>
+      <c r="G56">
+        <v>24</v>
+      </c>
+      <c r="H56">
+        <v>17</v>
+      </c>
+      <c r="I56">
+        <v>17</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57">
+        <v>50</v>
+      </c>
+      <c r="C57">
+        <v>66</v>
+      </c>
+      <c r="D57">
+        <v>17</v>
+      </c>
+      <c r="E57" t="s">
+        <v>60</v>
+      </c>
+      <c r="F57">
+        <v>47</v>
+      </c>
+      <c r="G57">
+        <v>63</v>
+      </c>
+      <c r="H57">
+        <v>17</v>
+      </c>
+      <c r="I57">
+        <v>17</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>52</v>
+      </c>
+      <c r="B58">
+        <v>39</v>
+      </c>
+      <c r="C58">
+        <v>55</v>
+      </c>
+      <c r="D58">
+        <v>17</v>
+      </c>
+      <c r="E58" t="s">
+        <v>51</v>
+      </c>
+      <c r="F58">
+        <v>764</v>
+      </c>
+      <c r="G58">
+        <v>780</v>
+      </c>
+      <c r="H58">
+        <v>17</v>
+      </c>
+      <c r="I58">
+        <v>17</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="K58" t="s">
+        <v>416</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59">
+        <v>109</v>
+      </c>
+      <c r="C59">
+        <v>124</v>
+      </c>
+      <c r="D59">
+        <v>16</v>
+      </c>
+      <c r="E59" t="s">
+        <v>76</v>
+      </c>
+      <c r="F59">
+        <v>1846</v>
+      </c>
+      <c r="G59">
+        <v>1863</v>
+      </c>
+      <c r="H59">
+        <v>18</v>
+      </c>
+      <c r="I59">
+        <v>17</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="K59" t="s">
+        <v>416</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>130</v>
+      </c>
+      <c r="B60">
+        <v>15</v>
+      </c>
+      <c r="C60">
+        <v>26</v>
+      </c>
+      <c r="D60">
+        <v>12</v>
+      </c>
+      <c r="E60" t="s">
+        <v>131</v>
+      </c>
+      <c r="F60">
+        <v>639</v>
+      </c>
+      <c r="G60">
+        <v>660</v>
+      </c>
+      <c r="H60">
+        <v>22</v>
+      </c>
+      <c r="I60">
+        <v>17</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="K60" t="s">
+        <v>418</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61">
+        <v>106</v>
+      </c>
+      <c r="C61">
+        <v>117</v>
+      </c>
+      <c r="D61">
+        <v>12</v>
+      </c>
+      <c r="E61" t="s">
+        <v>133</v>
+      </c>
+      <c r="F61">
+        <v>136</v>
+      </c>
+      <c r="G61">
+        <v>157</v>
+      </c>
+      <c r="H61">
+        <v>22</v>
+      </c>
+      <c r="I61">
+        <v>17</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="K61" t="s">
+        <v>416</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>400</v>
+      </c>
+      <c r="B62">
+        <v>5</v>
+      </c>
+      <c r="C62">
+        <v>13</v>
+      </c>
+      <c r="D62">
+        <v>9</v>
+      </c>
+      <c r="E62" t="s">
+        <v>117</v>
+      </c>
+      <c r="F62">
+        <v>249</v>
+      </c>
+      <c r="G62">
+        <v>273</v>
+      </c>
+      <c r="H62">
         <v>25</v>
       </c>
-      <c r="C53">
-        <v>40</v>
-      </c>
-      <c r="D53">
-        <v>16</v>
-      </c>
-      <c r="E53" t="s">
-        <v>81</v>
-      </c>
-      <c r="F53">
-        <v>56</v>
-      </c>
-      <c r="G53">
-        <v>71</v>
-      </c>
-      <c r="H53">
-        <v>16</v>
-      </c>
-      <c r="I53">
-        <v>16</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>86</v>
-      </c>
-      <c r="B54">
-        <v>5</v>
-      </c>
-      <c r="C54">
-        <v>20</v>
-      </c>
-      <c r="D54">
-        <v>16</v>
-      </c>
-      <c r="E54" t="s">
-        <v>81</v>
-      </c>
-      <c r="F54">
-        <v>56</v>
-      </c>
-      <c r="G54">
-        <v>71</v>
-      </c>
-      <c r="H54">
-        <v>16</v>
-      </c>
-      <c r="I54">
-        <v>16</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>87</v>
-      </c>
-      <c r="B55">
-        <v>30</v>
-      </c>
-      <c r="C55">
-        <v>45</v>
-      </c>
-      <c r="D55">
-        <v>16</v>
-      </c>
-      <c r="E55" t="s">
-        <v>81</v>
-      </c>
-      <c r="F55">
-        <v>56</v>
-      </c>
-      <c r="G55">
-        <v>71</v>
-      </c>
-      <c r="H55">
-        <v>16</v>
-      </c>
-      <c r="I55">
-        <v>16</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>88</v>
-      </c>
-      <c r="B56">
-        <v>5</v>
-      </c>
-      <c r="C56">
-        <v>20</v>
-      </c>
-      <c r="D56">
-        <v>16</v>
-      </c>
-      <c r="E56" t="s">
-        <v>81</v>
-      </c>
-      <c r="F56">
-        <v>56</v>
-      </c>
-      <c r="G56">
-        <v>71</v>
-      </c>
-      <c r="H56">
-        <v>16</v>
-      </c>
-      <c r="I56">
-        <v>16</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>89</v>
-      </c>
-      <c r="B57">
-        <v>20</v>
-      </c>
-      <c r="C57">
-        <v>35</v>
-      </c>
-      <c r="D57">
-        <v>16</v>
-      </c>
-      <c r="E57" t="s">
-        <v>81</v>
-      </c>
-      <c r="F57">
-        <v>56</v>
-      </c>
-      <c r="G57">
-        <v>71</v>
-      </c>
-      <c r="H57">
-        <v>16</v>
-      </c>
-      <c r="I57">
-        <v>16</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>2</v>
-      </c>
-      <c r="B58">
-        <v>2</v>
-      </c>
-      <c r="C58">
-        <v>30</v>
-      </c>
-      <c r="D58">
-        <v>29</v>
-      </c>
-      <c r="E58" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58">
-        <v>37</v>
-      </c>
-      <c r="G58">
-        <v>70</v>
-      </c>
-      <c r="H58">
-        <v>34</v>
-      </c>
-      <c r="I58">
-        <v>31.5</v>
-      </c>
-      <c r="J58" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>4</v>
-      </c>
-      <c r="B59">
-        <v>53</v>
-      </c>
-      <c r="C59">
-        <v>79</v>
-      </c>
-      <c r="D59">
-        <v>27</v>
-      </c>
-      <c r="E59" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59">
-        <v>63</v>
-      </c>
-      <c r="G59">
-        <v>89</v>
-      </c>
-      <c r="H59">
-        <v>27</v>
-      </c>
-      <c r="I59">
-        <v>27</v>
-      </c>
-      <c r="J59" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60">
-        <v>23</v>
-      </c>
-      <c r="C60">
-        <v>47</v>
-      </c>
-      <c r="D60">
-        <v>25</v>
-      </c>
-      <c r="E60" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60">
-        <v>82</v>
-      </c>
-      <c r="G60">
-        <v>108</v>
-      </c>
-      <c r="H60">
-        <v>27</v>
-      </c>
-      <c r="I60">
-        <v>26</v>
-      </c>
-      <c r="J60" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>15</v>
-      </c>
-      <c r="B61">
-        <v>13</v>
-      </c>
-      <c r="C61">
-        <v>37</v>
-      </c>
-      <c r="D61">
-        <v>25</v>
-      </c>
-      <c r="E61" t="s">
-        <v>16</v>
-      </c>
-      <c r="F61">
-        <v>14</v>
-      </c>
-      <c r="G61">
-        <v>37</v>
-      </c>
-      <c r="H61">
-        <v>24</v>
-      </c>
-      <c r="I61">
-        <v>24.5</v>
-      </c>
-      <c r="J61" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>184</v>
-      </c>
-      <c r="B62">
-        <v>20</v>
-      </c>
-      <c r="C62">
-        <v>39</v>
-      </c>
-      <c r="D62">
-        <v>20</v>
-      </c>
-      <c r="E62" t="s">
-        <v>185</v>
-      </c>
-      <c r="F62">
-        <v>591</v>
-      </c>
-      <c r="G62">
-        <v>609</v>
-      </c>
-      <c r="H62">
-        <v>19</v>
-      </c>
       <c r="I62">
-        <v>19.5</v>
-      </c>
-      <c r="J62" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="K62" t="s">
+        <v>418</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B63">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C63">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="D63">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E63" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F63">
-        <v>65</v>
+        <v>764</v>
       </c>
       <c r="G63">
-        <v>81</v>
+        <v>780</v>
       </c>
       <c r="H63">
         <v>17</v>
       </c>
       <c r="I63">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+      <c r="K63" t="s">
+        <v>416</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>48</v>
+        <v>401</v>
       </c>
       <c r="B64">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="C64">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="D64">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E64" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="F64">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="G64">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="H64">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I64">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>108</v>
+        <v>402</v>
       </c>
       <c r="B65">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="C65">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="D65">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E65" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="F65">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="G65">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="H65">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I65">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>54</v>
+        <v>403</v>
       </c>
       <c r="B66">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C66">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="D66">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E66" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="F66">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="G66">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="H66">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I66">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>123</v>
+        <v>404</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C67">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D67">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E67" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="F67">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="G67">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="H67">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I67">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>56</v>
+        <v>405</v>
       </c>
       <c r="B68">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C68">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D68">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E68" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="F68">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="G68">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="H68">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I68">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>57</v>
+        <v>406</v>
       </c>
       <c r="B69">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C69">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D69">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E69" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="F69">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="G69">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="H69">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I69">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>59</v>
+        <v>407</v>
       </c>
       <c r="B70">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C70">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="D70">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E70" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="F70">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="G70">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="H70">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I70">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>63</v>
+        <v>408</v>
       </c>
       <c r="B71">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C71">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D71">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E71" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="F71">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="G71">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="H71">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I71">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>99</v>
+        <v>409</v>
       </c>
       <c r="B72">
         <v>7</v>
       </c>
       <c r="C72">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D72">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E72" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F72">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="G72">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="H72">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I72">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>118</v>
+        <v>410</v>
       </c>
       <c r="B73">
-        <v>15</v>
+        <v>153</v>
       </c>
       <c r="C73">
-        <v>27</v>
+        <v>160</v>
       </c>
       <c r="D73">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E73" t="s">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="F73">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="G73">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="H73">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I73">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>65</v>
+        <v>181</v>
       </c>
       <c r="B74">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C74">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D74">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E74" t="s">
-        <v>64</v>
+        <v>182</v>
       </c>
       <c r="F74">
-        <v>49</v>
+        <v>339</v>
       </c>
       <c r="G74">
-        <v>64</v>
+        <v>359</v>
       </c>
       <c r="H74">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I74">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
+      </c>
+      <c r="K74" t="s">
+        <v>418</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="J75" s="1"/>
+      <c r="A75" t="s">
+        <v>411</v>
+      </c>
+      <c r="B75">
+        <v>140</v>
+      </c>
+      <c r="C75">
+        <v>150</v>
+      </c>
+      <c r="D75">
+        <v>11</v>
+      </c>
+      <c r="E75" t="s">
+        <v>131</v>
+      </c>
+      <c r="F75">
+        <v>639</v>
+      </c>
+      <c r="G75">
+        <v>660</v>
+      </c>
+      <c r="H75">
+        <v>22</v>
+      </c>
+      <c r="I75">
+        <v>16.5</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="K75" t="s">
+        <v>418</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>27</v>
+        <v>412</v>
       </c>
       <c r="B76">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C76">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D76">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E76" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F76">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="G76">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="H76">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I76">
-        <v>20</v>
-      </c>
-      <c r="J76" t="s">
+        <v>16.5</v>
+      </c>
+      <c r="J76" s="1" t="s">
         <v>415</v>
       </c>
       <c r="K76" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="B77">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C77">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D77">
+        <v>13</v>
+      </c>
+      <c r="E77" t="s">
+        <v>127</v>
+      </c>
+      <c r="F77">
+        <v>292</v>
+      </c>
+      <c r="G77">
+        <v>310</v>
+      </c>
+      <c r="H77">
         <v>19</v>
       </c>
-      <c r="E77" t="s">
-        <v>37</v>
-      </c>
-      <c r="F77">
-        <v>226</v>
-      </c>
-      <c r="G77">
-        <v>245</v>
-      </c>
-      <c r="H77">
-        <v>20</v>
-      </c>
       <c r="I77">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="K77" t="s">
-        <v>416</v>
-      </c>
-      <c r="L77" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="B78">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C78">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D78">
+        <v>13</v>
+      </c>
+      <c r="E78" t="s">
+        <v>127</v>
+      </c>
+      <c r="F78">
+        <v>292</v>
+      </c>
+      <c r="G78">
+        <v>310</v>
+      </c>
+      <c r="H78">
+        <v>19</v>
+      </c>
+      <c r="I78">
         <v>16</v>
       </c>
-      <c r="E78" t="s">
-        <v>91</v>
-      </c>
-      <c r="F78">
-        <v>84</v>
-      </c>
-      <c r="G78">
-        <v>106</v>
-      </c>
-      <c r="H78">
-        <v>23</v>
-      </c>
-      <c r="I78">
-        <v>19.5</v>
-      </c>
       <c r="J78" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="K78" t="s">
-        <v>418</v>
-      </c>
-      <c r="L78" s="2" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>46</v>
+        <v>381</v>
       </c>
       <c r="B79">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="C79">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="D79">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="F79">
-        <v>22</v>
+        <v>338</v>
       </c>
       <c r="G79">
-        <v>40</v>
+        <v>358</v>
       </c>
       <c r="H79">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I79">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="K79" t="s">
-        <v>418</v>
-      </c>
-      <c r="L79" s="2" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="C80">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="D80">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E80" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="F80">
-        <v>267</v>
+        <v>56</v>
       </c>
       <c r="G80">
-        <v>290</v>
+        <v>71</v>
       </c>
       <c r="H80">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I80">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="K80" t="s">
-        <v>418</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C81">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D81">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E81" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="F81">
-        <v>249</v>
+        <v>56</v>
       </c>
       <c r="G81">
-        <v>273</v>
+        <v>71</v>
       </c>
       <c r="H81">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I81">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="K81" t="s">
-        <v>416</v>
-      </c>
-      <c r="L81" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="C82">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="D82">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E82" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="F82">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="G82">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="H82">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I82">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="K82" t="s">
-        <v>416</v>
-      </c>
-      <c r="L82" s="2" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="C83">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="D83">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E83" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="F83">
-        <v>764</v>
+        <v>56</v>
       </c>
       <c r="G83">
-        <v>780</v>
+        <v>71</v>
       </c>
       <c r="H83">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I83">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="K83" t="s">
-        <v>416</v>
-      </c>
-      <c r="L83" s="2" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="C84">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="D84">
         <v>16</v>
       </c>
       <c r="E84" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F84">
-        <v>1846</v>
+        <v>56</v>
       </c>
       <c r="G84">
-        <v>1863</v>
+        <v>71</v>
       </c>
       <c r="H84">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I84">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="K84" t="s">
-        <v>416</v>
-      </c>
-      <c r="L84" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C85">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D85">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E85" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="F85">
-        <v>639</v>
+        <v>56</v>
       </c>
       <c r="G85">
-        <v>660</v>
+        <v>71</v>
       </c>
       <c r="H85">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I85">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="K85" t="s">
-        <v>418</v>
-      </c>
-      <c r="L85" s="2" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="C86">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="D86">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E86" t="s">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="F86">
-        <v>136</v>
+        <v>56</v>
       </c>
       <c r="G86">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="H86">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I86">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="K86" t="s">
-        <v>416</v>
-      </c>
-      <c r="L86" s="2" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>400</v>
+        <v>63</v>
       </c>
       <c r="B87">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C87">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D87">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E87" t="s">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="F87">
-        <v>249</v>
+        <v>49</v>
       </c>
       <c r="G87">
-        <v>273</v>
+        <v>64</v>
       </c>
       <c r="H87">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I87">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="K87" t="s">
-        <v>418</v>
-      </c>
-      <c r="L87" s="2" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="B88">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="C88">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="D88">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E88" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="F88">
-        <v>764</v>
+        <v>38</v>
       </c>
       <c r="G88">
-        <v>780</v>
+        <v>54</v>
       </c>
       <c r="H88">
         <v>17</v>
       </c>
       <c r="I88">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="K88" t="s">
-        <v>416</v>
-      </c>
-      <c r="L88" s="2" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="B89">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C89">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="D89">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E89" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="F89">
-        <v>339</v>
+        <v>122</v>
       </c>
       <c r="G89">
-        <v>359</v>
+        <v>140</v>
       </c>
       <c r="H89">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I89">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="K89" t="s">
-        <v>418</v>
-      </c>
-      <c r="L89" s="2" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>411</v>
+        <v>65</v>
       </c>
       <c r="B90">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="C90">
-        <v>150</v>
+        <v>53</v>
       </c>
       <c r="D90">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E90" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="F90">
-        <v>639</v>
+        <v>49</v>
       </c>
       <c r="G90">
-        <v>660</v>
+        <v>64</v>
       </c>
       <c r="H90">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I90">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="K90" t="s">
-        <v>418</v>
-      </c>
-      <c r="L90" s="2" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>412</v>
+        <v>80</v>
       </c>
       <c r="B91">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C91">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D91">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E91" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="F91">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="G91">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="H91">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I91">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>415</v>
       </c>
       <c r="K91" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B92">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C92">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D92">
         <v>16</v>
       </c>
       <c r="E92" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F92">
-        <v>56</v>
+        <v>571</v>
       </c>
       <c r="G92">
-        <v>71</v>
+        <v>586</v>
       </c>
       <c r="H92">
         <v>16</v>
@@ -4672,36 +4707,36 @@
         <v>415</v>
       </c>
       <c r="K92" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="B93">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C93">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D93">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E93" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="F93">
-        <v>571</v>
+        <v>403</v>
       </c>
       <c r="G93">
-        <v>586</v>
+        <v>421</v>
       </c>
       <c r="H93">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I93">
         <v>16</v>
@@ -4718,25 +4753,25 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B94">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C94">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="D94">
         <v>13</v>
       </c>
       <c r="E94" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F94">
-        <v>403</v>
+        <v>292</v>
       </c>
       <c r="G94">
-        <v>421</v>
+        <v>310</v>
       </c>
       <c r="H94">
         <v>19</v>
@@ -4748,36 +4783,36 @@
         <v>415</v>
       </c>
       <c r="K94" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>126</v>
+        <v>190</v>
       </c>
       <c r="B95">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="C95">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="D95">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>127</v>
+        <v>24</v>
       </c>
       <c r="F95">
-        <v>292</v>
+        <v>338</v>
       </c>
       <c r="G95">
-        <v>310</v>
+        <v>358</v>
       </c>
       <c r="H95">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I95">
         <v>16</v>
@@ -4786,33 +4821,33 @@
         <v>415</v>
       </c>
       <c r="K95" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B96">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C96">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="D96">
         <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>24</v>
+        <v>182</v>
       </c>
       <c r="F96">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G96">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H96">
         <v>21</v>
@@ -4832,25 +4867,25 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B97">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C97">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="D97">
         <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>182</v>
+        <v>24</v>
       </c>
       <c r="F97">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G97">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H97">
         <v>21</v>
@@ -4870,28 +4905,28 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="B98">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C98">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D98">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="F98">
-        <v>338</v>
+        <v>639</v>
       </c>
       <c r="G98">
-        <v>358</v>
+        <v>660</v>
       </c>
       <c r="H98">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I98">
         <v>16</v>
@@ -4908,28 +4943,28 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>209</v>
+        <v>66</v>
       </c>
       <c r="B99">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C99">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D99">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E99" t="s">
-        <v>131</v>
+        <v>67</v>
       </c>
       <c r="F99">
-        <v>639</v>
+        <v>58</v>
       </c>
       <c r="G99">
-        <v>660</v>
+        <v>73</v>
       </c>
       <c r="H99">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I99">
         <v>16</v>
@@ -4938,33 +4973,33 @@
         <v>415</v>
       </c>
       <c r="K99" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B100">
-        <v>9</v>
+        <v>143</v>
       </c>
       <c r="C100">
-        <v>24</v>
+        <v>158</v>
       </c>
       <c r="D100">
         <v>16</v>
       </c>
       <c r="E100" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="F100">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G100">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H100">
         <v>16</v>
@@ -4979,56 +5014,47 @@
         <v>416</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>82</v>
+        <v>192</v>
       </c>
       <c r="B101">
-        <v>143</v>
+        <v>32</v>
       </c>
       <c r="C101">
-        <v>158</v>
+        <v>42</v>
       </c>
       <c r="D101">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="F101">
-        <v>56</v>
+        <v>338</v>
       </c>
       <c r="G101">
-        <v>71</v>
+        <v>358</v>
       </c>
       <c r="H101">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I101">
         <v>16</v>
       </c>
-      <c r="J101" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="K101" t="s">
-        <v>416</v>
-      </c>
-      <c r="L101" s="2" t="s">
-        <v>417</v>
-      </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B102">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C102">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D102">
         <v>11</v>
@@ -5051,25 +5077,25 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B103">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="C103">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="D103">
         <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>24</v>
+        <v>182</v>
       </c>
       <c r="F103">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G103">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H103">
         <v>21</v>
@@ -5080,25 +5106,25 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B104">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="C104">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="D104">
         <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>182</v>
+        <v>24</v>
       </c>
       <c r="F104">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G104">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H104">
         <v>21</v>
@@ -5109,13 +5135,13 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B105">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C105">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D105">
         <v>11</v>
@@ -5138,28 +5164,28 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B106">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C106">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D106">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E106" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="F106">
-        <v>338</v>
+        <v>51</v>
       </c>
       <c r="G106">
-        <v>358</v>
+        <v>68</v>
       </c>
       <c r="H106">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I106">
         <v>16</v>
@@ -5167,28 +5193,28 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B107">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="C107">
+        <v>85</v>
+      </c>
+      <c r="D107">
+        <v>10</v>
+      </c>
+      <c r="E107" t="s">
+        <v>131</v>
+      </c>
+      <c r="F107">
+        <v>639</v>
+      </c>
+      <c r="G107">
+        <v>660</v>
+      </c>
+      <c r="H107">
         <v>22</v>
-      </c>
-      <c r="D107">
-        <v>14</v>
-      </c>
-      <c r="E107" t="s">
-        <v>121</v>
-      </c>
-      <c r="F107">
-        <v>51</v>
-      </c>
-      <c r="G107">
-        <v>68</v>
-      </c>
-      <c r="H107">
-        <v>18</v>
       </c>
       <c r="I107">
         <v>16</v>
@@ -5196,13 +5222,13 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>208</v>
+        <v>282</v>
       </c>
       <c r="B108">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="C108">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="D108">
         <v>10</v>
@@ -5225,57 +5251,57 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>282</v>
+        <v>20</v>
       </c>
       <c r="B109">
+        <v>42</v>
+      </c>
+      <c r="C109">
+        <v>62</v>
+      </c>
+      <c r="D109">
+        <v>21</v>
+      </c>
+      <c r="E109" t="s">
+        <v>21</v>
+      </c>
+      <c r="F109">
         <v>31</v>
       </c>
-      <c r="C109">
+      <c r="G109">
         <v>40</v>
       </c>
-      <c r="D109">
+      <c r="H109">
         <v>10</v>
       </c>
-      <c r="E109" t="s">
-        <v>131</v>
-      </c>
-      <c r="F109">
-        <v>639</v>
-      </c>
-      <c r="G109">
-        <v>660</v>
-      </c>
-      <c r="H109">
-        <v>22</v>
-      </c>
       <c r="I109">
-        <v>16</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="B110">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C110">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D110">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E110" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="F110">
-        <v>31</v>
+        <v>217</v>
       </c>
       <c r="G110">
-        <v>40</v>
+        <v>231</v>
       </c>
       <c r="H110">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I110">
         <v>15.5</v>
@@ -5283,28 +5309,28 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="B111">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C111">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D111">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E111" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="F111">
-        <v>217</v>
+        <v>70</v>
       </c>
       <c r="G111">
-        <v>231</v>
+        <v>86</v>
       </c>
       <c r="H111">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I111">
         <v>15.5</v>
@@ -5312,28 +5338,28 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="B112">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C112">
         <v>39</v>
       </c>
       <c r="D112">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E112" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="F112">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="G112">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="H112">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I112">
         <v>15.5</v>
@@ -5341,13 +5367,13 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B113">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="C113">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="D113">
         <v>13</v>
@@ -5370,28 +5396,28 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>122</v>
+        <v>180</v>
       </c>
       <c r="B114">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="C114">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="D114">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E114" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F114">
-        <v>51</v>
+        <v>403</v>
       </c>
       <c r="G114">
-        <v>68</v>
+        <v>421</v>
       </c>
       <c r="H114">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I114">
         <v>15.5</v>
@@ -5399,13 +5425,13 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B115">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C115">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D115">
         <v>12</v>
@@ -5428,28 +5454,28 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="B116">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="C116">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="D116">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>125</v>
+        <v>24</v>
       </c>
       <c r="F116">
-        <v>403</v>
+        <v>338</v>
       </c>
       <c r="G116">
-        <v>421</v>
+        <v>358</v>
       </c>
       <c r="H116">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I116">
         <v>15.5</v>
@@ -5457,13 +5483,13 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="B117">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C117">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="D117">
         <v>10</v>
@@ -5486,13 +5512,13 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B118">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C118">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D118">
         <v>10</v>
@@ -5515,13 +5541,13 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B119">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C119">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D119">
         <v>10</v>
@@ -5544,28 +5570,28 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="B120">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C120">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D120">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E120" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="F120">
-        <v>338</v>
+        <v>403</v>
       </c>
       <c r="G120">
-        <v>358</v>
+        <v>421</v>
       </c>
       <c r="H120">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I120">
         <v>15.5</v>
@@ -5573,7 +5599,7 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B121">
         <v>3</v>
@@ -5602,28 +5628,28 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>248</v>
+        <v>328</v>
       </c>
       <c r="B122">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C122">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D122">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E122" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F122">
-        <v>403</v>
+        <v>51</v>
       </c>
       <c r="G122">
-        <v>421</v>
+        <v>68</v>
       </c>
       <c r="H122">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I122">
         <v>15.5</v>
@@ -5631,28 +5657,28 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>328</v>
+        <v>61</v>
       </c>
       <c r="B123">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C123">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D123">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E123" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="F123">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G123">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="H123">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I123">
         <v>15.5</v>
@@ -5660,28 +5686,28 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>61</v>
+        <v>188</v>
       </c>
       <c r="B124">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="C124">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="D124">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E124" t="s">
-        <v>62</v>
+        <v>189</v>
       </c>
       <c r="F124">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="G124">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="H124">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I124">
         <v>15.5</v>
@@ -5689,28 +5715,28 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B125">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="C125">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="D125">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>189</v>
+        <v>23</v>
       </c>
       <c r="F125">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="G125">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="H125">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I125">
         <v>15.5</v>
@@ -5718,28 +5744,28 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="B126">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C126">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D126">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F126">
-        <v>114</v>
+        <v>338</v>
       </c>
       <c r="G126">
-        <v>133</v>
+        <v>358</v>
       </c>
       <c r="H126">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I126">
         <v>15.5</v>
@@ -5747,13 +5773,13 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B127">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="C127">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="D127">
         <v>10</v>
@@ -5776,13 +5802,13 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="B128">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="C128">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="D128">
         <v>10</v>
@@ -5805,13 +5831,13 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B129">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C129">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="D129">
         <v>10</v>
@@ -5834,13 +5860,13 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B130">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C130">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D130">
         <v>10</v>
@@ -5863,13 +5889,13 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B131">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C131">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D131">
         <v>10</v>
@@ -5892,13 +5918,13 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B132">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="C132">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="D132">
         <v>10</v>
@@ -5921,13 +5947,13 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B133">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="C133">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="D133">
         <v>10</v>
@@ -5950,13 +5976,13 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B134">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="C134">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="D134">
         <v>10</v>
@@ -5979,13 +6005,13 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B135">
-        <v>143</v>
+        <v>57</v>
       </c>
       <c r="C135">
-        <v>152</v>
+        <v>66</v>
       </c>
       <c r="D135">
         <v>10</v>
@@ -6008,13 +6034,13 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B136">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C136">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="D136">
         <v>10</v>
@@ -6037,13 +6063,13 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B137">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C137">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D137">
         <v>10</v>
@@ -6066,13 +6092,13 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B138">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C138">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D138">
         <v>10</v>
@@ -6095,13 +6121,13 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B139">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C139">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D139">
         <v>10</v>
@@ -6124,13 +6150,13 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B140">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C140">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D140">
         <v>10</v>
@@ -6153,13 +6179,13 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B141">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C141">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D141">
         <v>10</v>
@@ -6182,13 +6208,13 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B142">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C142">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D142">
         <v>10</v>
@@ -6211,13 +6237,13 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B143">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C143">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D143">
         <v>10</v>
@@ -6240,13 +6266,13 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B144">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C144">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D144">
         <v>10</v>
@@ -6269,13 +6295,13 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B145">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C145">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D145">
         <v>10</v>
@@ -6298,13 +6324,13 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B146">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C146">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D146">
         <v>10</v>
@@ -6327,13 +6353,13 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B147">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C147">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D147">
         <v>10</v>
@@ -6356,13 +6382,13 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B148">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C148">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D148">
         <v>10</v>
@@ -6385,13 +6411,13 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B149">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C149">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D149">
         <v>10</v>
@@ -6414,13 +6440,13 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B150">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C150">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D150">
         <v>10</v>
@@ -6443,13 +6469,13 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B151">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C151">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D151">
         <v>10</v>
@@ -6472,13 +6498,13 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B152">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C152">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D152">
         <v>10</v>
@@ -6501,13 +6527,13 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B153">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C153">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D153">
         <v>10</v>
@@ -6530,13 +6556,13 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B154">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C154">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D154">
         <v>10</v>
@@ -6559,13 +6585,13 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B155">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C155">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D155">
         <v>10</v>
@@ -6588,28 +6614,28 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B156">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C156">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D156">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E156" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="F156">
-        <v>338</v>
+        <v>403</v>
       </c>
       <c r="G156">
-        <v>358</v>
+        <v>421</v>
       </c>
       <c r="H156">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I156">
         <v>15.5</v>
@@ -6617,28 +6643,28 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B157">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C157">
+        <v>25</v>
+      </c>
+      <c r="D157">
         <v>14</v>
       </c>
-      <c r="D157">
-        <v>12</v>
-      </c>
       <c r="E157" t="s">
-        <v>125</v>
+        <v>253</v>
       </c>
       <c r="F157">
-        <v>403</v>
+        <v>1691</v>
       </c>
       <c r="G157">
-        <v>421</v>
+        <v>1707</v>
       </c>
       <c r="H157">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I157">
         <v>15.5</v>
@@ -6646,54 +6672,54 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>252</v>
+        <v>94</v>
       </c>
       <c r="B158">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C158">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D158">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E158" t="s">
-        <v>253</v>
+        <v>95</v>
       </c>
       <c r="F158">
-        <v>1691</v>
+        <v>107</v>
       </c>
       <c r="G158">
-        <v>1707</v>
+        <v>121</v>
       </c>
       <c r="H158">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I158">
-        <v>15.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B159">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="C159">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="D159">
         <v>15</v>
       </c>
       <c r="E159" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F159">
-        <v>107</v>
+        <v>252</v>
       </c>
       <c r="G159">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="H159">
         <v>15</v>
@@ -6704,25 +6730,25 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B160">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="C160">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="D160">
         <v>15</v>
       </c>
       <c r="E160" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F160">
-        <v>252</v>
+        <v>96</v>
       </c>
       <c r="G160">
-        <v>266</v>
+        <v>110</v>
       </c>
       <c r="H160">
         <v>15</v>
@@ -6733,25 +6759,25 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B161">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="C161">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="D161">
         <v>15</v>
       </c>
       <c r="E161" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F161">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="G161">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="H161">
         <v>15</v>
@@ -6762,28 +6788,28 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B162">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="C162">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="D162">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E162" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="F162">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="G162">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="H162">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I162">
         <v>15</v>
@@ -6791,28 +6817,28 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="B163">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C163">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D163">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E163" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="F163">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G163">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H163">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I163">
         <v>15</v>
@@ -6820,25 +6846,25 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B164">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C164">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D164">
         <v>12</v>
       </c>
       <c r="E164" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="F164">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="G164">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="H164">
         <v>18</v>
@@ -6849,13 +6875,13 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B165">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C165">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D165">
         <v>12</v>
@@ -6878,13 +6904,13 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B166">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C166">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D166">
         <v>12</v>
@@ -6907,13 +6933,13 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B167">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C167">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D167">
         <v>12</v>
@@ -6936,13 +6962,13 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B168">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C168">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D168">
         <v>12</v>
@@ -6965,13 +6991,13 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B169">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C169">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D169">
         <v>12</v>
@@ -6994,13 +7020,13 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B170">
+        <v>3</v>
+      </c>
+      <c r="C170">
         <v>14</v>
-      </c>
-      <c r="C170">
-        <v>25</v>
       </c>
       <c r="D170">
         <v>12</v>
@@ -7023,13 +7049,13 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B171">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="C171">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="D171">
         <v>12</v>
@@ -7052,13 +7078,13 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B172">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="C172">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="D172">
         <v>12</v>
@@ -7081,13 +7107,13 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B173">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="C173">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="D173">
         <v>12</v>
@@ -7110,13 +7136,13 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B174">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C174">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D174">
         <v>12</v>
@@ -7139,13 +7165,13 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B175">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C175">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D175">
         <v>12</v>
@@ -7168,13 +7194,13 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B176">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C176">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D176">
         <v>12</v>
@@ -7197,13 +7223,13 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B177">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C177">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D177">
         <v>12</v>
@@ -7226,13 +7252,13 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B178">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C178">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D178">
         <v>12</v>
@@ -7255,13 +7281,13 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B179">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C179">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D179">
         <v>12</v>
@@ -7284,13 +7310,13 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B180">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C180">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D180">
         <v>12</v>
@@ -7313,13 +7339,13 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B181">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C181">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D181">
         <v>12</v>
@@ -7342,13 +7368,13 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B182">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C182">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D182">
         <v>12</v>
@@ -7371,13 +7397,13 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B183">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C183">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D183">
         <v>12</v>
@@ -7400,13 +7426,13 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B184">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C184">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D184">
         <v>12</v>
@@ -7429,13 +7455,13 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B185">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C185">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D185">
         <v>12</v>
@@ -7458,13 +7484,13 @@
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B186">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="C186">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="D186">
         <v>12</v>
@@ -7487,13 +7513,13 @@
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B187">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="C187">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="D187">
         <v>12</v>
@@ -7516,13 +7542,13 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B188">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="C188">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="D188">
         <v>12</v>
@@ -7545,13 +7571,13 @@
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B189">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C189">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D189">
         <v>12</v>
@@ -7574,13 +7600,13 @@
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B190">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C190">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D190">
         <v>12</v>
@@ -7603,13 +7629,13 @@
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B191">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C191">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D191">
         <v>12</v>
@@ -7632,13 +7658,13 @@
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B192">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C192">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="D192">
         <v>12</v>
@@ -7661,13 +7687,13 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B193">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="C193">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="D193">
         <v>12</v>
@@ -7690,13 +7716,13 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B194">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C194">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D194">
         <v>12</v>
@@ -7719,13 +7745,13 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B195">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C195">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D195">
         <v>12</v>
@@ -7748,13 +7774,13 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B196">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C196">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D196">
         <v>12</v>
@@ -7777,13 +7803,13 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B197">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C197">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D197">
         <v>12</v>
@@ -7806,13 +7832,13 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B198">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C198">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D198">
         <v>12</v>
@@ -7835,13 +7861,13 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B199">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C199">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D199">
         <v>12</v>
@@ -7864,13 +7890,13 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B200">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C200">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D200">
         <v>12</v>
@@ -7893,13 +7919,13 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B201">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C201">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D201">
         <v>12</v>
@@ -7922,13 +7948,13 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B202">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C202">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D202">
         <v>12</v>
@@ -7951,13 +7977,13 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B203">
+        <v>17</v>
+      </c>
+      <c r="C203">
         <v>28</v>
-      </c>
-      <c r="C203">
-        <v>39</v>
       </c>
       <c r="D203">
         <v>12</v>
@@ -7980,13 +8006,13 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B204">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C204">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D204">
         <v>12</v>
@@ -8009,13 +8035,13 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B205">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C205">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D205">
         <v>12</v>
@@ -8038,13 +8064,13 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B206">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C206">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D206">
         <v>12</v>
@@ -8067,13 +8093,13 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B207">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C207">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D207">
         <v>12</v>
@@ -8096,25 +8122,25 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="B208">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C208">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D208">
         <v>12</v>
       </c>
       <c r="E208" t="s">
-        <v>121</v>
+        <v>187</v>
       </c>
       <c r="F208">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="G208">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="H208">
         <v>18</v>
@@ -8125,28 +8151,28 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="B209">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="C209">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="D209">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E209" t="s">
-        <v>187</v>
+        <v>23</v>
       </c>
       <c r="F209">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="G209">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="H209">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I209">
         <v>15</v>
@@ -8154,28 +8180,28 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>200</v>
+        <v>249</v>
       </c>
       <c r="B210">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="C210">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="D210">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E210" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F210">
-        <v>114</v>
+        <v>338</v>
       </c>
       <c r="G210">
-        <v>133</v>
+        <v>358</v>
       </c>
       <c r="H210">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I210">
         <v>15</v>
@@ -8183,13 +8209,13 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="B211">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="C211">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="D211">
         <v>9</v>
@@ -8212,13 +8238,13 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B212">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="C212">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="D212">
         <v>9</v>
@@ -8241,13 +8267,13 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="B213">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="C213">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="D213">
         <v>9</v>
@@ -8270,13 +8296,13 @@
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B214">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C214">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D214">
         <v>9</v>
@@ -8299,13 +8325,13 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B215">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="C215">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="D215">
         <v>9</v>
@@ -8328,13 +8354,13 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B216">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C216">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="D216">
         <v>9</v>
@@ -8357,13 +8383,13 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B217">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C217">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D217">
         <v>9</v>
@@ -8386,13 +8412,13 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B218">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C218">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="D218">
         <v>9</v>
@@ -8415,13 +8441,13 @@
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B219">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C219">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="D219">
         <v>9</v>
@@ -8444,13 +8470,13 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B220">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C220">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D220">
         <v>9</v>
@@ -8473,13 +8499,13 @@
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B221">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C221">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D221">
         <v>9</v>
@@ -8502,13 +8528,13 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B222">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C222">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D222">
         <v>9</v>
@@ -8531,7 +8557,7 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B223">
         <v>10</v>
@@ -8560,13 +8586,13 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B224">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C224">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D224">
         <v>9</v>
@@ -8589,13 +8615,13 @@
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B225">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C225">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D225">
         <v>9</v>
@@ -8618,13 +8644,13 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B226">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C226">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D226">
         <v>9</v>
@@ -8647,13 +8673,13 @@
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B227">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C227">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D227">
         <v>9</v>
@@ -8676,13 +8702,13 @@
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B228">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C228">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D228">
         <v>9</v>
@@ -8705,13 +8731,13 @@
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B229">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C229">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D229">
         <v>9</v>
@@ -8734,13 +8760,13 @@
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B230">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C230">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="D230">
         <v>9</v>
@@ -8763,13 +8789,13 @@
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B231">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C231">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D231">
         <v>9</v>
@@ -8792,13 +8818,13 @@
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B232">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="C232">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D232">
         <v>9</v>
@@ -8821,13 +8847,13 @@
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B233">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C233">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D233">
         <v>9</v>
@@ -8850,13 +8876,13 @@
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B234">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C234">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D234">
         <v>9</v>
@@ -8879,13 +8905,13 @@
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B235">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C235">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D235">
         <v>9</v>
@@ -8908,13 +8934,13 @@
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B236">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="C236">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="D236">
         <v>9</v>
@@ -8937,13 +8963,13 @@
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B237">
-        <v>116</v>
+        <v>9</v>
       </c>
       <c r="C237">
-        <v>124</v>
+        <v>17</v>
       </c>
       <c r="D237">
         <v>9</v>
@@ -8966,13 +8992,13 @@
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B238">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C238">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D238">
         <v>9</v>
@@ -8995,13 +9021,13 @@
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B239">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C239">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D239">
         <v>9</v>
@@ -9024,13 +9050,13 @@
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B240">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C240">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D240">
         <v>9</v>
@@ -9053,13 +9079,13 @@
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B241">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C241">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D241">
         <v>9</v>
@@ -9082,13 +9108,13 @@
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B242">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C242">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D242">
         <v>9</v>
@@ -9111,13 +9137,13 @@
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B243">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C243">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D243">
         <v>9</v>
@@ -9140,28 +9166,28 @@
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B244">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C244">
+        <v>18</v>
+      </c>
+      <c r="D244">
         <v>12</v>
       </c>
-      <c r="D244">
-        <v>9</v>
-      </c>
       <c r="E244" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="F244">
-        <v>338</v>
+        <v>51</v>
       </c>
       <c r="G244">
-        <v>358</v>
+        <v>68</v>
       </c>
       <c r="H244">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I244">
         <v>15</v>
@@ -9169,28 +9195,28 @@
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B245">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C245">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D245">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E245" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="F245">
-        <v>51</v>
+        <v>338</v>
       </c>
       <c r="G245">
-        <v>68</v>
+        <v>358</v>
       </c>
       <c r="H245">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I245">
         <v>15</v>
@@ -9198,13 +9224,13 @@
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B246">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C246">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D246">
         <v>9</v>
@@ -9227,13 +9253,13 @@
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B247">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C247">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D247">
         <v>9</v>
@@ -9256,13 +9282,13 @@
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B248">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C248">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D248">
         <v>9</v>
@@ -9285,13 +9311,13 @@
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B249">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C249">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D249">
         <v>9</v>
@@ -9314,13 +9340,13 @@
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B250">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C250">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D250">
         <v>9</v>
@@ -9343,13 +9369,13 @@
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B251">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C251">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D251">
         <v>9</v>
@@ -9372,13 +9398,13 @@
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B252">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C252">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D252">
         <v>9</v>
@@ -9401,13 +9427,13 @@
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B253">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C253">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D253">
         <v>9</v>
@@ -9430,13 +9456,13 @@
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B254">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C254">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D254">
         <v>9</v>
@@ -9459,13 +9485,13 @@
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B255">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C255">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="D255">
         <v>9</v>
@@ -9488,13 +9514,13 @@
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B256">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="C256">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="D256">
         <v>9</v>
@@ -9517,13 +9543,13 @@
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B257">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C257">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D257">
         <v>9</v>
@@ -9546,13 +9572,13 @@
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B258">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="C258">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="D258">
         <v>9</v>
@@ -9575,13 +9601,13 @@
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B259">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="C259">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="D259">
         <v>9</v>
@@ -9604,13 +9630,13 @@
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B260">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C260">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D260">
         <v>9</v>
@@ -9633,13 +9659,13 @@
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B261">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C261">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D261">
         <v>9</v>
@@ -9662,13 +9688,13 @@
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B262">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C262">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D262">
         <v>9</v>
@@ -9691,13 +9717,13 @@
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B263">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C263">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D263">
         <v>9</v>
@@ -9720,13 +9746,13 @@
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B264">
-        <v>5</v>
+        <v>117</v>
       </c>
       <c r="C264">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="D264">
         <v>9</v>
@@ -9749,13 +9775,13 @@
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B265">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="C265">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="D265">
         <v>9</v>
@@ -9778,13 +9804,13 @@
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B266">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C266">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D266">
         <v>9</v>
@@ -9807,13 +9833,13 @@
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B267">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="C267">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="D267">
         <v>9</v>
@@ -9836,13 +9862,13 @@
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B268">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="C268">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="D268">
         <v>9</v>
@@ -9865,13 +9891,13 @@
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B269">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C269">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D269">
         <v>9</v>
@@ -9894,13 +9920,13 @@
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B270">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C270">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D270">
         <v>9</v>
@@ -9923,13 +9949,13 @@
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B271">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C271">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="D271">
         <v>9</v>
@@ -9952,13 +9978,13 @@
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B272">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="C272">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="D272">
         <v>9</v>
@@ -9981,13 +10007,13 @@
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B273">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="C273">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="D273">
         <v>9</v>
@@ -10010,13 +10036,13 @@
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B274">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C274">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D274">
         <v>9</v>
@@ -10039,13 +10065,13 @@
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B275">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C275">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="D275">
         <v>9</v>
@@ -10068,13 +10094,13 @@
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B276">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C276">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="D276">
         <v>9</v>
@@ -10097,13 +10123,13 @@
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B277">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="C277">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="D277">
         <v>9</v>
@@ -10126,13 +10152,13 @@
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B278">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="C278">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="D278">
         <v>9</v>
@@ -10155,13 +10181,13 @@
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B279">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="C279">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="D279">
         <v>9</v>
@@ -10184,13 +10210,13 @@
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B280">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="C280">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="D280">
         <v>9</v>
@@ -10213,13 +10239,13 @@
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B281">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C281">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D281">
         <v>9</v>
@@ -10242,13 +10268,13 @@
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B282">
+        <v>31</v>
+      </c>
+      <c r="C282">
         <v>39</v>
-      </c>
-      <c r="C282">
-        <v>47</v>
       </c>
       <c r="D282">
         <v>9</v>
@@ -10271,13 +10297,13 @@
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B283">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="C283">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="D283">
         <v>9</v>
@@ -10300,13 +10326,13 @@
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B284">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C284">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="D284">
         <v>9</v>
@@ -10329,13 +10355,13 @@
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B285">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="C285">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="D285">
         <v>9</v>
@@ -10358,13 +10384,13 @@
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B286">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C286">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D286">
         <v>9</v>
@@ -10387,13 +10413,13 @@
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B287">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="C287">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="D287">
         <v>9</v>
@@ -10416,13 +10442,13 @@
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B288">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="C288">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="D288">
         <v>9</v>
@@ -10445,13 +10471,13 @@
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B289">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C289">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D289">
         <v>9</v>
@@ -10474,13 +10500,13 @@
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B290">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C290">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D290">
         <v>9</v>
@@ -10503,13 +10529,13 @@
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B291">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C291">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D291">
         <v>9</v>
@@ -10532,13 +10558,13 @@
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B292">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="C292">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="D292">
         <v>9</v>
@@ -10561,13 +10587,13 @@
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B293">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="C293">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="D293">
         <v>9</v>
@@ -10590,13 +10616,13 @@
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B294">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="C294">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D294">
         <v>9</v>
@@ -10619,13 +10645,13 @@
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B295">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C295">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="D295">
         <v>9</v>
@@ -10648,13 +10674,13 @@
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B296">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C296">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D296">
         <v>9</v>
@@ -10677,13 +10703,13 @@
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B297">
+        <v>19</v>
+      </c>
+      <c r="C297">
         <v>27</v>
-      </c>
-      <c r="C297">
-        <v>35</v>
       </c>
       <c r="D297">
         <v>9</v>
@@ -10706,13 +10732,13 @@
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B298">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C298">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D298">
         <v>9</v>
@@ -10735,13 +10761,13 @@
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B299">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C299">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D299">
         <v>9</v>
@@ -10764,13 +10790,13 @@
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B300">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="C300">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="D300">
         <v>9</v>
@@ -10793,13 +10819,13 @@
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B301">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="C301">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="D301">
         <v>9</v>
@@ -10822,13 +10848,13 @@
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B302">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="C302">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="D302">
         <v>9</v>
@@ -10851,28 +10877,28 @@
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>399</v>
+        <v>96</v>
       </c>
       <c r="B303">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="C303">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="D303">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E303" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="F303">
-        <v>338</v>
+        <v>252</v>
       </c>
       <c r="G303">
-        <v>358</v>
+        <v>266</v>
       </c>
       <c r="H303">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I303">
         <v>15</v>
@@ -10880,28 +10906,28 @@
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>96</v>
+        <v>203</v>
       </c>
       <c r="B304">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C304">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D304">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E304" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="F304">
-        <v>252</v>
+        <v>114</v>
       </c>
       <c r="G304">
-        <v>266</v>
+        <v>133</v>
       </c>
       <c r="H304">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I304">
         <v>15</v>
@@ -10909,13 +10935,13 @@
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B305">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C305">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D305">
         <v>10</v>
@@ -10938,13 +10964,13 @@
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B306">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C306">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D306">
         <v>10</v>
@@ -10967,13 +10993,13 @@
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B307">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C307">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D307">
         <v>10</v>
@@ -10996,13 +11022,13 @@
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="B308">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="C308">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="D308">
         <v>10</v>
@@ -11025,13 +11051,13 @@
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B309">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="C309">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D309">
         <v>10</v>
@@ -11054,13 +11080,13 @@
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B310">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C310">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D310">
         <v>10</v>
@@ -11083,13 +11109,13 @@
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B311">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C311">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="D311">
         <v>10</v>
@@ -11112,28 +11138,28 @@
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="B312">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C312">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="D312">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E312" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F312">
-        <v>114</v>
+        <v>338</v>
       </c>
       <c r="G312">
-        <v>133</v>
+        <v>358</v>
       </c>
       <c r="H312">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I312">
         <v>15</v>
@@ -11141,13 +11167,13 @@
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B313">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C313">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D313">
         <v>9</v>
@@ -11170,13 +11196,13 @@
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B314">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C314">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D314">
         <v>9</v>
@@ -11199,13 +11225,13 @@
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B315">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="C315">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="D315">
         <v>9</v>
@@ -11228,13 +11254,13 @@
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B316">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="C316">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="D316">
         <v>9</v>
@@ -11257,13 +11283,13 @@
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B317">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C317">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D317">
         <v>9</v>
@@ -11286,13 +11312,13 @@
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B318">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C318">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D318">
         <v>9</v>
@@ -11315,13 +11341,13 @@
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B319">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C319">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D319">
         <v>9</v>
@@ -11344,13 +11370,13 @@
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B320">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="C320">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D320">
         <v>9</v>
@@ -11373,13 +11399,13 @@
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B321">
-        <v>6</v>
+        <v>187</v>
       </c>
       <c r="C321">
-        <v>14</v>
+        <v>195</v>
       </c>
       <c r="D321">
         <v>9</v>
@@ -11402,13 +11428,13 @@
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B322">
-        <v>187</v>
+        <v>14</v>
       </c>
       <c r="C322">
-        <v>195</v>
+        <v>22</v>
       </c>
       <c r="D322">
         <v>9</v>
@@ -11431,13 +11457,13 @@
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B323">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C323">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D323">
         <v>9</v>
@@ -11460,13 +11486,13 @@
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B324">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C324">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D324">
         <v>9</v>
@@ -11489,13 +11515,13 @@
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B325">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C325">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D325">
         <v>9</v>
@@ -11518,7 +11544,7 @@
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B326">
         <v>38</v>
@@ -11547,13 +11573,13 @@
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B327">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C327">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D327">
         <v>9</v>
@@ -11576,13 +11602,13 @@
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B328">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C328">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D328">
         <v>9</v>
@@ -11605,13 +11631,13 @@
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B329">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C329">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D329">
         <v>9</v>
@@ -11634,13 +11660,13 @@
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B330">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="C330">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="D330">
         <v>9</v>
@@ -11663,13 +11689,13 @@
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B331">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C331">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="D331">
         <v>9</v>
@@ -11692,13 +11718,13 @@
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B332">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C332">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D332">
         <v>9</v>
@@ -11721,13 +11747,13 @@
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B333">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C333">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D333">
         <v>9</v>
@@ -11750,7 +11776,7 @@
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B334">
         <v>21</v>
@@ -11779,13 +11805,13 @@
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B335">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C335">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D335">
         <v>9</v>
@@ -11808,13 +11834,13 @@
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B336">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C336">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D336">
         <v>9</v>
@@ -11837,13 +11863,13 @@
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B337">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C337">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D337">
         <v>9</v>
@@ -11866,13 +11892,13 @@
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B338">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C338">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D338">
         <v>9</v>
@@ -11895,13 +11921,13 @@
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B339">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C339">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D339">
         <v>9</v>
@@ -11924,28 +11950,28 @@
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B340">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C340">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D340">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E340" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="F340">
-        <v>338</v>
+        <v>403</v>
       </c>
       <c r="G340">
-        <v>358</v>
+        <v>421</v>
       </c>
       <c r="H340">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I340">
         <v>15</v>
@@ -11953,28 +11979,28 @@
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B341">
-        <v>20</v>
+        <v>192</v>
       </c>
       <c r="C341">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="D341">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E341" t="s">
-        <v>125</v>
+        <v>24</v>
       </c>
       <c r="F341">
-        <v>403</v>
+        <v>338</v>
       </c>
       <c r="G341">
-        <v>421</v>
+        <v>358</v>
       </c>
       <c r="H341">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I341">
         <v>15</v>
@@ -11982,13 +12008,13 @@
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B342">
-        <v>192</v>
+        <v>9</v>
       </c>
       <c r="C342">
-        <v>200</v>
+        <v>17</v>
       </c>
       <c r="D342">
         <v>9</v>
@@ -12011,13 +12037,13 @@
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B343">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C343">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D343">
         <v>9</v>
@@ -12040,13 +12066,13 @@
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B344">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C344">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D344">
         <v>9</v>
@@ -12069,13 +12095,13 @@
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B345">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C345">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D345">
         <v>9</v>
@@ -12098,13 +12124,13 @@
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B346">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="C346">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="D346">
         <v>9</v>
@@ -12127,13 +12153,13 @@
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B347">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="C347">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="D347">
         <v>9</v>
@@ -12156,13 +12182,13 @@
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B348">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="C348">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="D348">
         <v>9</v>
@@ -12185,13 +12211,13 @@
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B349">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="C349">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="D349">
         <v>9</v>
@@ -12214,13 +12240,13 @@
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B350">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C350">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D350">
         <v>9</v>
@@ -12243,13 +12269,13 @@
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B351">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C351">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D351">
         <v>9</v>
@@ -12272,361 +12298,361 @@
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B352">
+        <v>9</v>
+      </c>
+      <c r="C352">
+        <v>17</v>
+      </c>
+      <c r="D352">
+        <v>9</v>
+      </c>
+      <c r="E352" t="s">
+        <v>24</v>
+      </c>
+      <c r="F352">
+        <v>338</v>
+      </c>
+      <c r="G352">
+        <v>358</v>
+      </c>
+      <c r="H352">
+        <v>21</v>
+      </c>
+      <c r="I352">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>296</v>
+      </c>
+      <c r="B353">
+        <v>30</v>
+      </c>
+      <c r="C353">
+        <v>38</v>
+      </c>
+      <c r="D353">
+        <v>9</v>
+      </c>
+      <c r="E353" t="s">
+        <v>24</v>
+      </c>
+      <c r="F353">
+        <v>338</v>
+      </c>
+      <c r="G353">
+        <v>358</v>
+      </c>
+      <c r="H353">
+        <v>21</v>
+      </c>
+      <c r="I353">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>297</v>
+      </c>
+      <c r="B354">
+        <v>39</v>
+      </c>
+      <c r="C354">
+        <v>48</v>
+      </c>
+      <c r="D354">
+        <v>10</v>
+      </c>
+      <c r="E354" t="s">
+        <v>23</v>
+      </c>
+      <c r="F354">
+        <v>114</v>
+      </c>
+      <c r="G354">
+        <v>133</v>
+      </c>
+      <c r="H354">
+        <v>20</v>
+      </c>
+      <c r="I354">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>298</v>
+      </c>
+      <c r="B355">
+        <v>5</v>
+      </c>
+      <c r="C355">
+        <v>13</v>
+      </c>
+      <c r="D355">
+        <v>9</v>
+      </c>
+      <c r="E355" t="s">
+        <v>24</v>
+      </c>
+      <c r="F355">
+        <v>338</v>
+      </c>
+      <c r="G355">
+        <v>358</v>
+      </c>
+      <c r="H355">
+        <v>21</v>
+      </c>
+      <c r="I355">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>299</v>
+      </c>
+      <c r="B356">
+        <v>3</v>
+      </c>
+      <c r="C356">
         <v>11</v>
       </c>
-      <c r="C352">
+      <c r="D356">
+        <v>9</v>
+      </c>
+      <c r="E356" t="s">
+        <v>24</v>
+      </c>
+      <c r="F356">
+        <v>338</v>
+      </c>
+      <c r="G356">
+        <v>358</v>
+      </c>
+      <c r="H356">
+        <v>21</v>
+      </c>
+      <c r="I356">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>300</v>
+      </c>
+      <c r="B357">
+        <v>8</v>
+      </c>
+      <c r="C357">
+        <v>16</v>
+      </c>
+      <c r="D357">
+        <v>9</v>
+      </c>
+      <c r="E357" t="s">
+        <v>24</v>
+      </c>
+      <c r="F357">
+        <v>338</v>
+      </c>
+      <c r="G357">
+        <v>358</v>
+      </c>
+      <c r="H357">
+        <v>21</v>
+      </c>
+      <c r="I357">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>301</v>
+      </c>
+      <c r="B358">
+        <v>6</v>
+      </c>
+      <c r="C358">
+        <v>14</v>
+      </c>
+      <c r="D358">
+        <v>9</v>
+      </c>
+      <c r="E358" t="s">
+        <v>24</v>
+      </c>
+      <c r="F358">
+        <v>338</v>
+      </c>
+      <c r="G358">
+        <v>358</v>
+      </c>
+      <c r="H358">
+        <v>21</v>
+      </c>
+      <c r="I358">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>302</v>
+      </c>
+      <c r="B359">
+        <v>2</v>
+      </c>
+      <c r="C359">
+        <v>10</v>
+      </c>
+      <c r="D359">
+        <v>9</v>
+      </c>
+      <c r="E359" t="s">
+        <v>24</v>
+      </c>
+      <c r="F359">
+        <v>338</v>
+      </c>
+      <c r="G359">
+        <v>358</v>
+      </c>
+      <c r="H359">
+        <v>21</v>
+      </c>
+      <c r="I359">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>303</v>
+      </c>
+      <c r="B360">
+        <v>11</v>
+      </c>
+      <c r="C360">
         <v>19</v>
       </c>
-      <c r="D352">
-        <v>9</v>
-      </c>
-      <c r="E352" t="s">
-        <v>24</v>
-      </c>
-      <c r="F352">
-        <v>338</v>
-      </c>
-      <c r="G352">
-        <v>358</v>
-      </c>
-      <c r="H352">
-        <v>21</v>
-      </c>
-      <c r="I352">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A353" t="s">
-        <v>295</v>
-      </c>
-      <c r="B353">
-        <v>9</v>
-      </c>
-      <c r="C353">
+      <c r="D360">
+        <v>9</v>
+      </c>
+      <c r="E360" t="s">
+        <v>24</v>
+      </c>
+      <c r="F360">
+        <v>338</v>
+      </c>
+      <c r="G360">
+        <v>358</v>
+      </c>
+      <c r="H360">
+        <v>21</v>
+      </c>
+      <c r="I360">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>304</v>
+      </c>
+      <c r="B361">
+        <v>10</v>
+      </c>
+      <c r="C361">
+        <v>18</v>
+      </c>
+      <c r="D361">
+        <v>9</v>
+      </c>
+      <c r="E361" t="s">
+        <v>24</v>
+      </c>
+      <c r="F361">
+        <v>338</v>
+      </c>
+      <c r="G361">
+        <v>358</v>
+      </c>
+      <c r="H361">
+        <v>21</v>
+      </c>
+      <c r="I361">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>305</v>
+      </c>
+      <c r="B362">
+        <v>3</v>
+      </c>
+      <c r="C362">
+        <v>11</v>
+      </c>
+      <c r="D362">
+        <v>9</v>
+      </c>
+      <c r="E362" t="s">
+        <v>24</v>
+      </c>
+      <c r="F362">
+        <v>338</v>
+      </c>
+      <c r="G362">
+        <v>358</v>
+      </c>
+      <c r="H362">
+        <v>21</v>
+      </c>
+      <c r="I362">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>306</v>
+      </c>
+      <c r="B363">
+        <v>33</v>
+      </c>
+      <c r="C363">
+        <v>41</v>
+      </c>
+      <c r="D363">
+        <v>9</v>
+      </c>
+      <c r="E363" t="s">
+        <v>24</v>
+      </c>
+      <c r="F363">
+        <v>338</v>
+      </c>
+      <c r="G363">
+        <v>358</v>
+      </c>
+      <c r="H363">
+        <v>21</v>
+      </c>
+      <c r="I363">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>307</v>
+      </c>
+      <c r="B364">
         <v>17</v>
       </c>
-      <c r="D353">
-        <v>9</v>
-      </c>
-      <c r="E353" t="s">
-        <v>24</v>
-      </c>
-      <c r="F353">
-        <v>338</v>
-      </c>
-      <c r="G353">
-        <v>358</v>
-      </c>
-      <c r="H353">
-        <v>21</v>
-      </c>
-      <c r="I353">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A354" t="s">
-        <v>296</v>
-      </c>
-      <c r="B354">
-        <v>30</v>
-      </c>
-      <c r="C354">
-        <v>38</v>
-      </c>
-      <c r="D354">
-        <v>9</v>
-      </c>
-      <c r="E354" t="s">
-        <v>24</v>
-      </c>
-      <c r="F354">
-        <v>338</v>
-      </c>
-      <c r="G354">
-        <v>358</v>
-      </c>
-      <c r="H354">
-        <v>21</v>
-      </c>
-      <c r="I354">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A355" t="s">
-        <v>297</v>
-      </c>
-      <c r="B355">
-        <v>39</v>
-      </c>
-      <c r="C355">
-        <v>48</v>
-      </c>
-      <c r="D355">
-        <v>10</v>
-      </c>
-      <c r="E355" t="s">
-        <v>23</v>
-      </c>
-      <c r="F355">
-        <v>114</v>
-      </c>
-      <c r="G355">
-        <v>133</v>
-      </c>
-      <c r="H355">
-        <v>20</v>
-      </c>
-      <c r="I355">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A356" t="s">
-        <v>298</v>
-      </c>
-      <c r="B356">
-        <v>5</v>
-      </c>
-      <c r="C356">
-        <v>13</v>
-      </c>
-      <c r="D356">
-        <v>9</v>
-      </c>
-      <c r="E356" t="s">
-        <v>24</v>
-      </c>
-      <c r="F356">
-        <v>338</v>
-      </c>
-      <c r="G356">
-        <v>358</v>
-      </c>
-      <c r="H356">
-        <v>21</v>
-      </c>
-      <c r="I356">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A357" t="s">
-        <v>299</v>
-      </c>
-      <c r="B357">
-        <v>3</v>
-      </c>
-      <c r="C357">
-        <v>11</v>
-      </c>
-      <c r="D357">
-        <v>9</v>
-      </c>
-      <c r="E357" t="s">
-        <v>24</v>
-      </c>
-      <c r="F357">
-        <v>338</v>
-      </c>
-      <c r="G357">
-        <v>358</v>
-      </c>
-      <c r="H357">
-        <v>21</v>
-      </c>
-      <c r="I357">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A358" t="s">
-        <v>300</v>
-      </c>
-      <c r="B358">
-        <v>8</v>
-      </c>
-      <c r="C358">
-        <v>16</v>
-      </c>
-      <c r="D358">
-        <v>9</v>
-      </c>
-      <c r="E358" t="s">
-        <v>24</v>
-      </c>
-      <c r="F358">
-        <v>338</v>
-      </c>
-      <c r="G358">
-        <v>358</v>
-      </c>
-      <c r="H358">
-        <v>21</v>
-      </c>
-      <c r="I358">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A359" t="s">
-        <v>301</v>
-      </c>
-      <c r="B359">
-        <v>6</v>
-      </c>
-      <c r="C359">
-        <v>14</v>
-      </c>
-      <c r="D359">
-        <v>9</v>
-      </c>
-      <c r="E359" t="s">
-        <v>24</v>
-      </c>
-      <c r="F359">
-        <v>338</v>
-      </c>
-      <c r="G359">
-        <v>358</v>
-      </c>
-      <c r="H359">
-        <v>21</v>
-      </c>
-      <c r="I359">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A360" t="s">
-        <v>302</v>
-      </c>
-      <c r="B360">
-        <v>2</v>
-      </c>
-      <c r="C360">
-        <v>10</v>
-      </c>
-      <c r="D360">
-        <v>9</v>
-      </c>
-      <c r="E360" t="s">
-        <v>24</v>
-      </c>
-      <c r="F360">
-        <v>338</v>
-      </c>
-      <c r="G360">
-        <v>358</v>
-      </c>
-      <c r="H360">
-        <v>21</v>
-      </c>
-      <c r="I360">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A361" t="s">
-        <v>303</v>
-      </c>
-      <c r="B361">
-        <v>11</v>
-      </c>
-      <c r="C361">
-        <v>19</v>
-      </c>
-      <c r="D361">
-        <v>9</v>
-      </c>
-      <c r="E361" t="s">
-        <v>24</v>
-      </c>
-      <c r="F361">
-        <v>338</v>
-      </c>
-      <c r="G361">
-        <v>358</v>
-      </c>
-      <c r="H361">
-        <v>21</v>
-      </c>
-      <c r="I361">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A362" t="s">
-        <v>304</v>
-      </c>
-      <c r="B362">
-        <v>10</v>
-      </c>
-      <c r="C362">
-        <v>18</v>
-      </c>
-      <c r="D362">
-        <v>9</v>
-      </c>
-      <c r="E362" t="s">
-        <v>24</v>
-      </c>
-      <c r="F362">
-        <v>338</v>
-      </c>
-      <c r="G362">
-        <v>358</v>
-      </c>
-      <c r="H362">
-        <v>21</v>
-      </c>
-      <c r="I362">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A363" t="s">
-        <v>305</v>
-      </c>
-      <c r="B363">
-        <v>3</v>
-      </c>
-      <c r="C363">
-        <v>11</v>
-      </c>
-      <c r="D363">
-        <v>9</v>
-      </c>
-      <c r="E363" t="s">
-        <v>24</v>
-      </c>
-      <c r="F363">
-        <v>338</v>
-      </c>
-      <c r="G363">
-        <v>358</v>
-      </c>
-      <c r="H363">
-        <v>21</v>
-      </c>
-      <c r="I363">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A364" t="s">
-        <v>306</v>
-      </c>
-      <c r="B364">
-        <v>33</v>
-      </c>
       <c r="C364">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D364">
         <v>9</v>
@@ -12647,38 +12673,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A365" t="s">
-        <v>307</v>
-      </c>
-      <c r="B365">
-        <v>17</v>
-      </c>
-      <c r="C365">
-        <v>25</v>
-      </c>
-      <c r="D365">
-        <v>9</v>
-      </c>
-      <c r="E365" t="s">
-        <v>24</v>
-      </c>
-      <c r="F365">
-        <v>338</v>
-      </c>
-      <c r="G365">
-        <v>358</v>
-      </c>
-      <c r="H365">
-        <v>21</v>
-      </c>
-      <c r="I365">
-        <v>15</v>
-      </c>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J365" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A48:J101">
-    <sortCondition ref="J48:J101"/>
+  <sortState ref="A1:L365">
+    <sortCondition descending="1" ref="I1:I365"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
